--- a/MainTop/20.12.2025 имена/20.12.2025 имена.xlsx
+++ b/MainTop/20.12.2025 имена/20.12.2025 имена.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\20.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\20.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF06E19-3EF8-48F3-BE36-8FFCB0971C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A7E7C-60B2-4076-A970-FBBA96DA8976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>OZN1296067225</t>
   </si>
   <si>
-    <t>штриход</t>
-  </si>
-  <si>
-    <t>артикул</t>
-  </si>
-  <si>
     <t>OZN2365501953</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>OZN2365501207</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,10 +650,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,17 +1018,17 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
@@ -1143,12 +1143,12 @@
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
@@ -1173,12 +1173,12 @@
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
@@ -1243,42 +1243,42 @@
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
@@ -1303,22 +1303,22 @@
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
@@ -1333,12 +1333,12 @@
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
@@ -1353,12 +1353,12 @@
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
@@ -1383,22 +1383,22 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
@@ -1423,12 +1423,12 @@
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
@@ -1443,12 +1443,12 @@
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
@@ -1463,22 +1463,22 @@
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
@@ -1513,12 +1513,12 @@
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
@@ -1528,12 +1528,12 @@
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
@@ -1553,12 +1553,12 @@
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
@@ -1588,42 +1588,42 @@
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
